--- a/excel/data_mitra.xlsx
+++ b/excel/data_mitra.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\simpentra\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383B6579-1A92-4393-892A-665223BFC267}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851A084F-1276-431E-97AB-8DDD2FDE6F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>id_mitra</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>nama_lengkap</t>
   </si>
@@ -37,9 +34,6 @@
     <t>alamat</t>
   </si>
   <si>
-    <t>no_hp</t>
-  </si>
-  <si>
     <t>no_wa</t>
   </si>
   <si>
@@ -67,22 +61,34 @@
     <t>kmdkm</t>
   </si>
   <si>
-    <t>mitra10</t>
-  </si>
-  <si>
-    <t>mitra9</t>
-  </si>
-  <si>
-    <t>mi10</t>
-  </si>
-  <si>
-    <t>mit9</t>
-  </si>
-  <si>
-    <t>mitra9@gmail.com</t>
-  </si>
-  <si>
     <t>mitra10@gmail.com</t>
+  </si>
+  <si>
+    <t>mitra16</t>
+  </si>
+  <si>
+    <t>mitra15</t>
+  </si>
+  <si>
+    <t>mit15</t>
+  </si>
+  <si>
+    <t>mi16</t>
+  </si>
+  <si>
+    <t>mitra16@gmail.com</t>
+  </si>
+  <si>
+    <t>fef</t>
+  </si>
+  <si>
+    <t>ddef</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>wsss</t>
   </si>
 </sst>
 </file>
@@ -469,28 +475,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,69 +522,69 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1009</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>221</v>
+      </c>
+      <c r="F2">
+        <v>233</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>38463</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1010</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>123</v>
+      </c>
+      <c r="F3">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="F3">
-        <v>123</v>
-      </c>
-      <c r="G3">
-        <v>123</v>
-      </c>
-      <c r="H3">
-        <v>23</v>
+      <c r="H3" t="s">
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{81EEF7A4-21C0-4365-A143-56E7FFE85803}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{192444D2-F109-47E3-A5A7-6500319839C7}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{81EEF7A4-21C0-4365-A143-56E7FFE85803}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{192444D2-F109-47E3-A5A7-6500319839C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
